--- a/docs/Mapping_casi_uso/morte/Morte_005.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_005.xlsx
@@ -480,7 +480,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -488,23 +488,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -512,10 +513,10 @@
   <cols>
     <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="38.4453125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="23.42578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2461,273 +2462,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2002F903-D44B-453C-ABFF-52DBD393404C}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{303A8A0E-1618-493F-A290-63681198EC99}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C60131A5-F2E5-48C3-824A-876243144224}"/>
 </file>
--- a/docs/Mapping_casi_uso/morte/Morte_005.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,30 +167,270 @@
     <t>indirizzoMorte</t>
   </si>
   <si>
+    <t>Deceduto</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Codice Fiscale</t>
+  </si>
+  <si>
+    <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato Nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia Nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune Nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalità   - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato Residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia Residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune Residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo Residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Dati della trascrizione</t>
+  </si>
+  <si>
+    <t>Data richiesta trascrizione</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte</t>
+  </si>
+  <si>
+    <t>dataComunicazione</t>
+  </si>
+  <si>
+    <t>Riassunto</t>
+  </si>
+  <si>
+    <t>testoLibero</t>
+  </si>
+  <si>
+    <t>Atto da trascrivere</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoEstero.enteEstero</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Descrizione documento</t>
+  </si>
+  <si>
+    <t>descrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Coniuge</t>
+  </si>
+  <si>
+    <t>evento.coniuge</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Unito civilmente</t>
+  </si>
+  <si>
     <t>Autorità mittente</t>
   </si>
   <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
     <t>evento.trascrizioneMorte.atto.enteEstero</t>
   </si>
   <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -215,223 +455,16 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
-    <t>Data richiesta</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMorte</t>
-  </si>
-  <si>
-    <t>dataComunicazione</t>
-  </si>
-  <si>
-    <t>Deceduto</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Codice Fiscale</t>
-  </si>
-  <si>
-    <t>codiceFiscale</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalità   - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato Residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo Residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>Dati della trascrizione</t>
-  </si>
-  <si>
-    <t>Data richiesta trascrizione</t>
-  </si>
-  <si>
-    <t>Riassunto</t>
-  </si>
-  <si>
-    <t>testoLibero</t>
-  </si>
-  <si>
-    <t>Coniuge</t>
-  </si>
-  <si>
-    <t>evento.coniuge</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Unito civilmente</t>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -505,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -514,8 +547,8 @@
     <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="38.4453125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -947,7 +980,7 @@
         <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>53</v>
@@ -987,7 +1020,7 @@
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>53</v>
@@ -1007,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>53</v>
@@ -1027,7 +1060,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>53</v>
@@ -1047,7 +1080,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>53</v>
@@ -1067,7 +1100,7 @@
         <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>53</v>
@@ -1087,13 +1120,13 @@
         <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1101,19 +1134,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1121,19 +1154,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1141,19 +1174,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1161,19 +1194,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1181,19 +1214,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1201,19 +1234,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1221,19 +1254,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1241,19 +1274,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1261,19 +1294,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1281,19 +1314,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1301,19 +1334,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1321,19 +1354,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1341,19 +1374,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1361,19 +1394,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1381,7 +1414,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>100</v>
@@ -1390,10 +1423,10 @@
         <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1401,19 +1434,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1421,19 +1454,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1441,19 +1474,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1461,19 +1494,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1481,19 +1514,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1501,19 +1534,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1521,19 +1554,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1541,19 +1574,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1561,19 +1594,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1581,19 +1614,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1601,19 +1634,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C55" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1621,19 +1654,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1641,19 +1674,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1661,19 +1694,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1681,19 +1714,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1701,19 +1734,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1721,19 +1754,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1741,19 +1774,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1761,19 +1794,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1781,19 +1814,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1801,19 +1834,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1821,19 +1854,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1841,19 +1874,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1861,19 +1894,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1881,19 +1914,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1901,7 +1934,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>132</v>
@@ -1910,10 +1943,10 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1921,19 +1954,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1941,19 +1974,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -1961,19 +1994,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -1981,19 +2014,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2001,19 +2034,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2021,19 +2054,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2041,19 +2074,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2061,19 +2094,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2081,19 +2114,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2101,19 +2134,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2121,19 +2154,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2141,19 +2174,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2161,19 +2194,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2181,19 +2214,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2201,19 +2234,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2221,19 +2254,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2241,19 +2274,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2261,19 +2294,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2281,19 +2314,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2301,19 +2334,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2321,19 +2354,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2341,7 +2374,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>132</v>
@@ -2350,10 +2383,10 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2361,19 +2394,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2381,19 +2414,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2401,19 +2434,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2421,19 +2454,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2441,21 +2474,161 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="F97" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C99" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F97" s="2" t="s">
+      <c r="D103" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_005.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -359,6 +365,9 @@
     <t>evento.coniuge</t>
   </si>
   <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+  </si>
+  <si>
     <t>Stato di nascita</t>
   </si>
   <si>
@@ -423,6 +432,9 @@
   </si>
   <si>
     <t>Unito civilmente</t>
+  </si>
+  <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -538,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -550,6 +562,7 @@
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="45.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -571,25 +584,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -611,2025 +630,2331 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_005.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_005.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>

--- a/docs/Mapping_casi_uso/morte/Morte_005.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -631,2330 +634,2330 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_005.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_005.xlsx
@@ -368,7 +368,7 @@
     <t>evento.coniuge</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -437,7 +437,7 @@
     <t>Unito civilmente</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -565,7 +565,7 @@
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="45.70703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/morte/Morte_005.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_005.xlsx
@@ -38,7 +38,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193</t>
+    <t>193.3</t>
   </si>
   <si>
     <t>SI</t>

--- a/docs/Mapping_casi_uso/morte/Morte_005.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -248,6 +248,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -342,6 +348,9 @@
   </si>
   <si>
     <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -553,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1312,7 +1321,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>56</v>
@@ -1404,7 +1413,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>56</v>
@@ -1513,19 +1522,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1536,16 +1545,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1559,19 +1568,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1582,16 +1591,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>107</v>
@@ -1605,7 +1614,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>108</v>
@@ -1614,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>109</v>
@@ -1628,7 +1637,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>110</v>
@@ -1637,7 +1646,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>111</v>
@@ -1651,19 +1660,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1683,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1697,306 +1706,306 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>128</v>
@@ -2005,21 +2014,21 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>129</v>
@@ -2028,21 +2037,21 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>130</v>
@@ -2051,21 +2060,21 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>131</v>
@@ -2074,21 +2083,21 @@
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>132</v>
@@ -2097,21 +2106,21 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>133</v>
@@ -2120,21 +2129,21 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>134</v>
@@ -2143,228 +2152,228 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>122</v>
@@ -2373,21 +2382,21 @@
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>123</v>
@@ -2396,21 +2405,21 @@
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>124</v>
@@ -2419,21 +2428,21 @@
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>125</v>
@@ -2442,21 +2451,21 @@
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>126</v>
@@ -2465,21 +2474,21 @@
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>127</v>
@@ -2488,332 +2497,332 @@
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2824,19 +2833,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2847,19 +2856,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2870,19 +2879,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2893,19 +2902,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2916,19 +2925,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2939,24 +2948,116 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="B107" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
+      <c r="E107" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_005.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="199">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,18 +35,24 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Processo verbale di dichiarazione di morte</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
     <t>193.3</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -504,6 +510,105 @@
   </si>
   <si>
     <t>descrizionestatocivile</t>
+  </si>
+  <si>
+    <t>Atto di nascita del deceduto</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoNascitaDeceduto</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -562,17 +667,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.12890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.90625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
@@ -624,77 +729,77 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -703,7 +808,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -712,12 +817,12 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -726,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -735,44 +840,44 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>29</v>
@@ -781,21 +886,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
@@ -804,21 +909,21 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>33</v>
@@ -827,21 +932,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>35</v>
@@ -850,21 +955,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>37</v>
@@ -873,21 +978,21 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
@@ -896,21 +1001,21 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>41</v>
@@ -919,21 +1024,21 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>43</v>
@@ -942,21 +1047,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>45</v>
@@ -965,21 +1070,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
@@ -988,21 +1093,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>49</v>
@@ -1011,21 +1116,21 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
@@ -1034,21 +1139,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>53</v>
@@ -1057,44 +1162,44 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>59</v>
@@ -1103,21 +1208,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>61</v>
@@ -1126,21 +1231,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>63</v>
@@ -1149,12 +1254,12 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>64</v>
@@ -1163,7 +1268,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>65</v>
@@ -1172,12 +1277,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
@@ -1186,7 +1291,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>67</v>
@@ -1195,12 +1300,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>68</v>
@@ -1209,7 +1314,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>69</v>
@@ -1218,21 +1323,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
@@ -1241,21 +1346,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>73</v>
@@ -1264,21 +1369,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1287,21 +1392,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>77</v>
@@ -1310,21 +1415,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>79</v>
@@ -1333,21 +1438,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>81</v>
@@ -1356,12 +1461,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>82</v>
@@ -1370,7 +1475,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>83</v>
@@ -1379,12 +1484,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>84</v>
@@ -1393,7 +1498,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>85</v>
@@ -1402,12 +1507,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>86</v>
@@ -1416,7 +1521,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -1425,21 +1530,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>89</v>
@@ -1448,21 +1553,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1471,21 +1576,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1494,21 +1599,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1517,21 +1622,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1540,44 +1645,44 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1586,44 +1691,44 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>109</v>
@@ -1632,12 +1737,12 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>110</v>
@@ -1646,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>111</v>
@@ -1655,44 +1760,44 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>114</v>
@@ -1701,21 +1806,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>116</v>
@@ -1724,21 +1829,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>118</v>
@@ -1747,44 +1852,44 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>59</v>
@@ -1793,44 +1898,44 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>65</v>
@@ -1839,21 +1944,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>67</v>
@@ -1862,21 +1967,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>69</v>
@@ -1885,21 +1990,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>71</v>
@@ -1908,21 +2013,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>73</v>
@@ -1931,21 +2036,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>75</v>
@@ -1954,21 +2059,21 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>77</v>
@@ -1977,21 +2082,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>79</v>
@@ -2000,21 +2105,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>81</v>
@@ -2023,21 +2128,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>83</v>
@@ -2046,21 +2151,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>85</v>
@@ -2069,21 +2174,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>87</v>
@@ -2092,21 +2197,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>89</v>
@@ -2115,21 +2220,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>91</v>
@@ -2138,21 +2243,21 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>93</v>
@@ -2161,21 +2266,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>95</v>
@@ -2184,21 +2289,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>97</v>
@@ -2207,44 +2312,44 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>140</v>
@@ -2253,21 +2358,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>142</v>
@@ -2276,44 +2381,44 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>59</v>
@@ -2322,44 +2427,44 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>65</v>
@@ -2368,21 +2473,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>67</v>
@@ -2391,21 +2496,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>69</v>
@@ -2414,21 +2519,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>71</v>
@@ -2437,21 +2542,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>73</v>
@@ -2460,21 +2565,21 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>75</v>
@@ -2483,21 +2588,21 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>77</v>
@@ -2506,21 +2611,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>79</v>
@@ -2529,21 +2634,21 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>81</v>
@@ -2552,21 +2657,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>83</v>
@@ -2575,21 +2680,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>85</v>
@@ -2598,21 +2703,21 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>87</v>
@@ -2621,21 +2726,21 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>89</v>
@@ -2644,21 +2749,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>91</v>
@@ -2667,21 +2772,21 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>93</v>
@@ -2690,21 +2795,21 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>95</v>
@@ -2713,21 +2818,21 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>97</v>
@@ -2736,44 +2841,44 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>140</v>
@@ -2782,21 +2887,21 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>142</v>
@@ -2805,7 +2910,7 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
@@ -2813,36 +2918,36 @@
         <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>109</v>
@@ -2851,12 +2956,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>110</v>
@@ -2865,7 +2970,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>111</v>
@@ -2874,44 +2979,44 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>150</v>
@@ -2920,21 +3025,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>152</v>
@@ -2943,21 +3048,21 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>154</v>
@@ -2966,21 +3071,21 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>156</v>
@@ -2989,21 +3094,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>158</v>
@@ -3012,35 +3117,35 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>162</v>
@@ -3049,7 +3154,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>163</v>
@@ -3058,7 +3163,375 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_005.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="207">
   <si>
     <t>Sezione</t>
   </si>
@@ -312,6 +312,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -667,7 +691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1673,19 +1697,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1696,19 +1720,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1719,19 +1743,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1742,19 +1766,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1789,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1812,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1811,7 +1835,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>115</v>
@@ -1820,10 +1844,10 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1858,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1881,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1880,1169 +1904,1169 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C98" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3053,19 +3077,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3076,19 +3100,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3099,7 +3123,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>157</v>
@@ -3108,7 +3132,7 @@
         <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>158</v>
@@ -3122,7 +3146,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>159</v>
@@ -3131,7 +3155,7 @@
         <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>160</v>
@@ -3145,19 +3169,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3168,19 +3192,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3191,122 +3215,122 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E114" s="2" t="s">
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>179</v>
@@ -3315,7 +3339,7 @@
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>180</v>
@@ -3324,12 +3348,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>181</v>
@@ -3338,136 +3362,136 @@
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>192</v>
@@ -3476,61 +3500,153 @@
         <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E124" s="2" t="s">
+      <c r="C125" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_005.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="208">
   <si>
     <t>Sezione</t>
   </si>
@@ -206,6 +206,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -428,10 +434,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -691,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1289,7 +1292,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>58</v>
@@ -1381,7 +1384,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>58</v>
@@ -1496,7 +1499,7 @@
         <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>58</v>
@@ -1588,7 +1591,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>58</v>
@@ -1789,19 +1792,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1812,16 +1815,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>113</v>
@@ -1835,19 +1838,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1858,16 +1861,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>119</v>
@@ -1881,7 +1884,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>120</v>
@@ -1890,7 +1893,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>121</v>
@@ -1904,19 +1907,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1927,16 +1930,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>124</v>
@@ -1950,16 +1953,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>126</v>
@@ -1973,16 +1976,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>128</v>
@@ -1996,145 +1999,145 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>134</v>
@@ -2143,21 +2146,21 @@
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>135</v>
@@ -2166,21 +2169,21 @@
         <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>136</v>
@@ -2189,21 +2192,21 @@
         <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>137</v>
@@ -2212,573 +2215,573 @@
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>138</v>
@@ -2787,21 +2790,21 @@
         <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>139</v>
@@ -2810,332 +2813,332 @@
         <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3146,19 +3149,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3169,19 +3172,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3192,19 +3195,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3215,19 +3218,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3238,19 +3241,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3261,19 +3264,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3284,19 +3287,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3307,346 +3310,415 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E128" s="2" t="s">
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
+      <c r="C131" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_005.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="210">
   <si>
     <t>Sezione</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -694,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1568,7 +1574,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>58</v>
@@ -1591,7 +1597,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>58</v>
@@ -1815,19 +1821,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1838,16 +1844,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>115</v>
@@ -1861,19 +1867,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1884,16 +1890,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>121</v>
@@ -1907,7 +1913,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>122</v>
@@ -1916,7 +1922,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>123</v>
@@ -1930,19 +1936,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1953,16 +1959,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>126</v>
@@ -1976,16 +1982,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>128</v>
@@ -1999,16 +2005,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>130</v>
@@ -2022,375 +2028,375 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>143</v>
@@ -2399,21 +2405,21 @@
         <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>144</v>
@@ -2422,21 +2428,21 @@
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>145</v>
@@ -2445,21 +2451,21 @@
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>146</v>
@@ -2468,21 +2474,21 @@
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>147</v>
@@ -2491,21 +2497,21 @@
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>148</v>
@@ -2514,228 +2520,228 @@
         <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>136</v>
@@ -2744,21 +2750,21 @@
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>137</v>
@@ -2767,21 +2773,21 @@
         <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>138</v>
@@ -2790,21 +2796,21 @@
         <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>139</v>
@@ -2813,113 +2819,113 @@
         <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>142</v>
@@ -2928,200 +2934,200 @@
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106">
@@ -3129,22 +3135,22 @@
         <v>156</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="107">
@@ -3152,22 +3158,22 @@
         <v>156</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="108">
@@ -3175,39 +3181,39 @@
         <v>156</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3218,19 +3224,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3241,19 +3247,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3264,19 +3270,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3287,19 +3293,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3310,19 +3316,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3333,19 +3339,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3356,19 +3362,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3379,346 +3385,415 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="C131" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="C133" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
+      <c r="B134" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_005.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="212">
   <si>
     <t>Sezione</t>
   </si>
@@ -441,6 +441,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -700,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2376,7 +2382,7 @@
         <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>27</v>
@@ -2385,7 +2391,7 @@
         <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2399,7 +2405,7 @@
         <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>27</v>
@@ -2408,7 +2414,7 @@
         <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2422,7 +2428,7 @@
         <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
@@ -2431,7 +2437,7 @@
         <v>134</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2445,7 +2451,7 @@
         <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
@@ -2454,7 +2460,7 @@
         <v>134</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2468,7 +2474,7 @@
         <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
@@ -2477,7 +2483,7 @@
         <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2491,7 +2497,7 @@
         <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
@@ -2500,7 +2506,7 @@
         <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2514,7 +2520,7 @@
         <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>27</v>
@@ -2523,7 +2529,7 @@
         <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2537,7 +2543,7 @@
         <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>27</v>
@@ -2546,7 +2552,7 @@
         <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2560,7 +2566,7 @@
         <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
@@ -2569,7 +2575,7 @@
         <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2626,11 +2632,11 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
@@ -2638,67 +2644,67 @@
         <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>27</v>
@@ -2707,21 +2713,21 @@
         <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
@@ -2730,21 +2736,21 @@
         <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
@@ -2753,21 +2759,21 @@
         <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
@@ -2776,21 +2782,21 @@
         <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>27</v>
@@ -2799,21 +2805,21 @@
         <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>27</v>
@@ -2822,21 +2828,21 @@
         <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>27</v>
@@ -2845,21 +2851,21 @@
         <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
@@ -2868,21 +2874,21 @@
         <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
@@ -2891,21 +2897,21 @@
         <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
@@ -2914,21 +2920,21 @@
         <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
@@ -2937,21 +2943,21 @@
         <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>27</v>
@@ -2960,18 +2966,18 @@
         <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>143</v>
@@ -2983,21 +2989,21 @@
         <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>27</v>
@@ -3006,18 +3012,18 @@
         <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>145</v>
@@ -3029,18 +3035,18 @@
         <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>146</v>
@@ -3052,18 +3058,18 @@
         <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>147</v>
@@ -3075,18 +3081,18 @@
         <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>148</v>
@@ -3098,18 +3104,18 @@
         <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>149</v>
@@ -3121,18 +3127,18 @@
         <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>150</v>
@@ -3144,21 +3150,21 @@
         <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>27</v>
@@ -3167,21 +3173,21 @@
         <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>27</v>
@@ -3190,13 +3196,13 @@
         <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109">
@@ -3204,22 +3210,22 @@
         <v>158</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="110">
@@ -3227,39 +3233,39 @@
         <v>158</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3270,19 +3276,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3293,19 +3299,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3316,19 +3322,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3339,19 +3345,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3362,19 +3368,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3385,19 +3391,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3408,19 +3414,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3431,19 +3437,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3454,346 +3460,392 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="C133" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="C135" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
+      <c r="B136" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_005.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="214">
   <si>
     <t>Sezione</t>
   </si>
@@ -618,6 +618,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -706,7 +712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3782,39 +3788,39 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="C134" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>209</v>
@@ -3828,7 +3834,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>210</v>
@@ -3837,7 +3843,7 @@
         <v>27</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>211</v>
@@ -3846,6 +3852,29 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_005.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_005.xlsx
@@ -2092,7 +2092,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>134</v>
@@ -2690,7 +2690,7 @@
         <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>134</v>

--- a/docs/Mapping_casi_uso/morte/Morte_005.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="218">
   <si>
     <t>Sezione</t>
   </si>
@@ -216,6 +216,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -712,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1356,7 +1368,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>58</v>
@@ -1379,7 +1391,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>58</v>
@@ -1425,7 +1437,7 @@
         <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>58</v>
@@ -1448,7 +1460,7 @@
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>58</v>
@@ -1540,7 +1552,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>58</v>
@@ -1563,7 +1575,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>58</v>
@@ -1586,7 +1598,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>58</v>
@@ -1609,7 +1621,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>58</v>
@@ -1856,19 +1868,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1879,19 +1891,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1902,19 +1914,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1925,19 +1937,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1948,16 +1960,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>125</v>
@@ -1971,19 +1983,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1994,19 +2006,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -2017,16 +2029,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>130</v>
@@ -2040,7 +2052,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>131</v>
@@ -2049,7 +2061,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>132</v>
@@ -2063,214 +2075,214 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>140</v>
@@ -2279,21 +2291,21 @@
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>141</v>
@@ -2302,159 +2314,159 @@
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>146</v>
@@ -2463,21 +2475,21 @@
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>147</v>
@@ -2486,44 +2498,44 @@
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>149</v>
@@ -2532,21 +2544,21 @@
         <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>150</v>
@@ -2555,21 +2567,21 @@
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>151</v>
@@ -2578,21 +2590,21 @@
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>152</v>
@@ -2601,366 +2613,366 @@
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C87" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>142</v>
@@ -2969,21 +2981,21 @@
         <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>143</v>
@@ -2992,44 +3004,44 @@
         <v>27</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>145</v>
@@ -3038,378 +3050,378 @@
         <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="C116" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3420,19 +3432,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3443,19 +3455,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3466,19 +3478,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3489,19 +3501,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3512,369 +3524,507 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E137" s="2" t="s">
+      <c r="E141" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>18</v>
       </c>
     </row>
